--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.009520000000000001</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N2">
-        <v>0.02856</v>
+        <v>0.792031</v>
       </c>
       <c r="O2">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P2">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q2">
-        <v>0.1886418590933333</v>
+        <v>8.696367934816111</v>
       </c>
       <c r="R2">
-        <v>1.69777673184</v>
+        <v>78.267311413345</v>
       </c>
       <c r="S2">
-        <v>2.346925513229366E-05</v>
+        <v>0.0009520210948605448</v>
       </c>
       <c r="T2">
-        <v>2.346925513229366E-05</v>
+        <v>0.0009520210948605447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.23744</v>
       </c>
       <c r="O3">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P3">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q3">
-        <v>21.38363796579556</v>
+        <v>35.54654982808889</v>
       </c>
       <c r="R3">
-        <v>192.45274169216</v>
+        <v>319.9189484528</v>
       </c>
       <c r="S3">
-        <v>0.002660374836676918</v>
+        <v>0.003891402196814673</v>
       </c>
       <c r="T3">
-        <v>0.002660374836676918</v>
+        <v>0.003891402196814672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.844986</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N4">
-        <v>26.534958</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O4">
-        <v>0.8904062077467443</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P4">
-        <v>0.8904062077467442</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q4">
-        <v>175.2662397788347</v>
+        <v>0.09952120429777776</v>
       </c>
       <c r="R4">
-        <v>1577.396158009512</v>
+        <v>0.8956908386799999</v>
       </c>
       <c r="S4">
-        <v>0.021805171541551</v>
+        <v>1.089492608725666E-05</v>
       </c>
       <c r="T4">
-        <v>0.021805171541551</v>
+        <v>1.089492608725666E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>530.2995503333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>1590.898651</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.6553774102381563</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.6553774102381563</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.009520000000000001</v>
+        <v>5.782978</v>
       </c>
       <c r="N5">
-        <v>0.02856</v>
+        <v>17.348934</v>
       </c>
       <c r="O5">
-        <v>0.0009583584527718874</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P5">
-        <v>0.0009583584527718874</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q5">
-        <v>5.048451719173333</v>
+        <v>190.4883941927033</v>
       </c>
       <c r="R5">
-        <v>45.43606547256</v>
+        <v>1714.39554773433</v>
       </c>
       <c r="S5">
-        <v>0.000628086480857486</v>
+        <v>0.02085341500691681</v>
       </c>
       <c r="T5">
-        <v>0.000628086480857486</v>
+        <v>0.02085341500691681</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>530.2995503333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>1590.898651</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.6553774102381563</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.6553774102381563</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.079146666666667</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N6">
-        <v>3.23744</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O6">
-        <v>0.1086354338004839</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P6">
-        <v>0.1086354338004839</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q6">
-        <v>572.2709920770488</v>
+        <v>0.0966993872738889</v>
       </c>
       <c r="R6">
-        <v>5150.43892869344</v>
+        <v>0.8702944854650001</v>
       </c>
       <c r="S6">
-        <v>0.07119720926425979</v>
+        <v>1.058601214149044E-05</v>
       </c>
       <c r="T6">
-        <v>0.07119720926425979</v>
+        <v>1.058601214149044E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>1590.898651</v>
       </c>
       <c r="I7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>8.844986</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N7">
-        <v>26.534958</v>
+        <v>0.792031</v>
       </c>
       <c r="O7">
-        <v>0.8904062077467443</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P7">
-        <v>0.8904062077467442</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q7">
-        <v>4690.492098504628</v>
+        <v>140.0045610500201</v>
       </c>
       <c r="R7">
-        <v>42214.42888654166</v>
+        <v>1260.041049450181</v>
       </c>
       <c r="S7">
-        <v>0.5835521144930391</v>
+        <v>0.01532677739665215</v>
       </c>
       <c r="T7">
-        <v>0.583552114493039</v>
+        <v>0.01532677739665215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>114.1551646666667</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>342.465494</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.1410801048907614</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.1410801048907614</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.009520000000000001</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N8">
-        <v>0.02856</v>
+        <v>3.23744</v>
       </c>
       <c r="O8">
-        <v>0.0009583584527718874</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P8">
-        <v>0.0009583584527718874</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q8">
-        <v>1.086757167626667</v>
+        <v>572.2709920770488</v>
       </c>
       <c r="R8">
-        <v>9.780814508640002</v>
+        <v>5150.43892869344</v>
       </c>
       <c r="S8">
-        <v>0.0001352053110400057</v>
+        <v>0.06264845973834046</v>
       </c>
       <c r="T8">
-        <v>0.0001352053110400057</v>
+        <v>0.06264845973834046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>114.1551646666667</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>342.465494</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.1410801048907614</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.1410801048907614</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.079146666666667</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N9">
-        <v>3.23744</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O9">
-        <v>0.1086354338004839</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P9">
-        <v>0.1086354338004839</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q9">
-        <v>123.1901654328178</v>
+        <v>1.602211708073777</v>
       </c>
       <c r="R9">
-        <v>1108.71148889536</v>
+        <v>14.419905372664</v>
       </c>
       <c r="S9">
-        <v>0.01532629839542564</v>
+        <v>0.0001753995870404758</v>
       </c>
       <c r="T9">
-        <v>0.01532629839542564</v>
+        <v>0.0001753995870404758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.1551646666667</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>342.465494</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.1410801048907614</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.1410801048907614</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.844986</v>
+        <v>5.782978</v>
       </c>
       <c r="N10">
-        <v>26.534958</v>
+        <v>17.348934</v>
       </c>
       <c r="O10">
-        <v>0.8904062077467443</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P10">
-        <v>0.8904062077467442</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q10">
-        <v>1009.700833304361</v>
+        <v>3066.710632987559</v>
       </c>
       <c r="R10">
-        <v>9087.307499739252</v>
+        <v>27600.39569688803</v>
       </c>
       <c r="S10">
-        <v>0.1256186011842958</v>
+        <v>0.3357232854360624</v>
       </c>
       <c r="T10">
-        <v>0.1256186011842958</v>
+        <v>0.3357232854360624</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.330706</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>168.992118</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.06961701587708551</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.06961701587708552</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.009520000000000001</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N11">
-        <v>0.02856</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O11">
-        <v>0.0009583584527718874</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P11">
-        <v>0.0009583584527718874</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q11">
-        <v>0.53626832112</v>
+        <v>1.556782713261889</v>
       </c>
       <c r="R11">
-        <v>4.826414890080001</v>
+        <v>14.011044419357</v>
       </c>
       <c r="S11">
-        <v>6.671805562255958E-05</v>
+        <v>0.0001704263198439398</v>
       </c>
       <c r="T11">
-        <v>6.67180556225596E-05</v>
+        <v>0.0001704263198439398</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.330706</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H12">
-        <v>168.992118</v>
+        <v>1266.542389</v>
       </c>
       <c r="I12">
-        <v>0.06961701587708551</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J12">
-        <v>0.06961701587708552</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.079146666666667</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N12">
-        <v>3.23744</v>
+        <v>0.792031</v>
       </c>
       <c r="O12">
-        <v>0.1086354338004839</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P12">
-        <v>0.1086354338004839</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q12">
-        <v>60.78909361088</v>
+        <v>111.4600927668954</v>
       </c>
       <c r="R12">
-        <v>547.1018424979201</v>
+        <v>1003.140834902059</v>
       </c>
       <c r="S12">
-        <v>0.007562874719702357</v>
+        <v>0.01220191697781949</v>
       </c>
       <c r="T12">
-        <v>0.007562874719702358</v>
+        <v>0.01220191697781948</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.330706</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H13">
-        <v>168.992118</v>
+        <v>1266.542389</v>
       </c>
       <c r="I13">
-        <v>0.06961701587708551</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J13">
-        <v>0.06961701587708552</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.844986</v>
+        <v>1.079146666666667</v>
       </c>
       <c r="N13">
-        <v>26.534958</v>
+        <v>3.23744</v>
       </c>
       <c r="O13">
-        <v>0.8904062077467443</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P13">
-        <v>0.8904062077467442</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q13">
-        <v>498.244305940116</v>
+        <v>455.5949990937955</v>
       </c>
       <c r="R13">
-        <v>4484.198753461044</v>
+        <v>4100.35499184416</v>
       </c>
       <c r="S13">
-        <v>0.06198742310176059</v>
+        <v>0.04987554035217298</v>
       </c>
       <c r="T13">
-        <v>0.0619874231017606</v>
+        <v>0.04987554035217297</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.22062233333333</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>138.661867</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.05712234103418551</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.05712234103418551</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,33 +1305,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.009520000000000001</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N14">
-        <v>0.02856</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O14">
-        <v>0.0009583584527718874</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P14">
-        <v>0.0009583584527718874</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q14">
-        <v>0.4400203246133333</v>
+        <v>1.275548912655111</v>
       </c>
       <c r="R14">
-        <v>3.96018292152</v>
+        <v>11.479940213896</v>
       </c>
       <c r="S14">
-        <v>5.474367837223012E-05</v>
+        <v>0.0001396386953123751</v>
       </c>
       <c r="T14">
-        <v>5.474367837223012E-05</v>
+        <v>0.0001396386953123751</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.22062233333333</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>138.661867</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.05712234103418551</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.05712234103418551</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.079146666666667</v>
+        <v>5.782978</v>
       </c>
       <c r="N15">
-        <v>3.23744</v>
+        <v>17.348934</v>
       </c>
       <c r="O15">
-        <v>0.1086354338004839</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P15">
-        <v>0.1086354338004839</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q15">
-        <v>49.87883052227556</v>
+        <v>2441.462257218147</v>
       </c>
       <c r="R15">
-        <v>448.9094747004801</v>
+        <v>21973.16031496333</v>
       </c>
       <c r="S15">
-        <v>0.006205510297947922</v>
+        <v>0.2672752105936128</v>
       </c>
       <c r="T15">
-        <v>0.006205510297947922</v>
+        <v>0.2672752105936128</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.22062233333333</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>138.661867</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.05712234103418551</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.05712234103418551</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>8.844986</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N16">
-        <v>26.534958</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O16">
-        <v>0.8904062077467443</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P16">
-        <v>0.8904062077467442</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q16">
-        <v>408.8207574496207</v>
+        <v>1.239382091102555</v>
       </c>
       <c r="R16">
-        <v>3679.386817046586</v>
+        <v>11.154438819923</v>
       </c>
       <c r="S16">
-        <v>0.05086208705786536</v>
+        <v>0.0001356793898517308</v>
       </c>
       <c r="T16">
-        <v>0.05086208705786535</v>
+        <v>0.0001356793898517308</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.33003733333333</v>
+        <v>16.509264</v>
       </c>
       <c r="H17">
-        <v>126.990112</v>
+        <v>49.527792</v>
       </c>
       <c r="I17">
-        <v>0.05231411232645103</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J17">
-        <v>0.05231411232645103</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.009520000000000001</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N17">
-        <v>0.02856</v>
+        <v>0.792031</v>
       </c>
       <c r="O17">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P17">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q17">
-        <v>0.4029819554133333</v>
+        <v>4.358616291728</v>
       </c>
       <c r="R17">
-        <v>3.62683759872</v>
+        <v>39.227546625552</v>
       </c>
       <c r="S17">
-        <v>5.013567174731233E-05</v>
+        <v>0.0004771526095986923</v>
       </c>
       <c r="T17">
-        <v>5.013567174731233E-05</v>
+        <v>0.0004771526095986923</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.33003733333333</v>
+        <v>16.509264</v>
       </c>
       <c r="H18">
-        <v>126.990112</v>
+        <v>49.527792</v>
       </c>
       <c r="I18">
-        <v>0.05231411232645103</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J18">
-        <v>0.05231411232645103</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,84 +1559,828 @@
         <v>3.23744</v>
       </c>
       <c r="O18">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P18">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q18">
-        <v>45.68031868814222</v>
+        <v>17.81591721472</v>
       </c>
       <c r="R18">
-        <v>411.1228681932801</v>
+        <v>160.34325493248</v>
       </c>
       <c r="S18">
-        <v>0.005683166286471248</v>
+        <v>0.001950369296680547</v>
       </c>
       <c r="T18">
-        <v>0.005683166286471248</v>
+        <v>0.001950369296680547</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>16.509264</v>
+      </c>
+      <c r="H19">
+        <v>49.527792</v>
+      </c>
+      <c r="I19">
+        <v>0.01289001179132366</v>
+      </c>
+      <c r="J19">
+        <v>0.01289001179132366</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P19">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q19">
+        <v>0.04987998963199999</v>
+      </c>
+      <c r="R19">
+        <v>0.4489199066879999</v>
+      </c>
+      <c r="S19">
+        <v>5.4605327990982E-06</v>
+      </c>
+      <c r="T19">
+        <v>5.4605327990982E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>16.509264</v>
+      </c>
+      <c r="H20">
+        <v>49.527792</v>
+      </c>
+      <c r="I20">
+        <v>0.01289001179132366</v>
+      </c>
+      <c r="J20">
+        <v>0.01289001179132366</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.782978</v>
+      </c>
+      <c r="N20">
+        <v>17.348934</v>
+      </c>
+      <c r="O20">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P20">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q20">
+        <v>95.47271050819199</v>
+      </c>
+      <c r="R20">
+        <v>859.254394573728</v>
+      </c>
+      <c r="S20">
+        <v>0.01045172364699801</v>
+      </c>
+      <c r="T20">
+        <v>0.01045172364699801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>16.509264</v>
+      </c>
+      <c r="H21">
+        <v>49.527792</v>
+      </c>
+      <c r="I21">
+        <v>0.01289001179132366</v>
+      </c>
+      <c r="J21">
+        <v>0.01289001179132366</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P21">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q21">
+        <v>0.048465696016</v>
+      </c>
+      <c r="R21">
+        <v>0.436191264144</v>
+      </c>
+      <c r="S21">
+        <v>5.305705247314414E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.305705247314414E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>44.62094166666666</v>
+      </c>
+      <c r="H22">
+        <v>133.862825</v>
+      </c>
+      <c r="I22">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="J22">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2640103333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.792031</v>
+      </c>
+      <c r="O22">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="P22">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="Q22">
+        <v>11.78038968306389</v>
+      </c>
+      <c r="R22">
+        <v>106.023507147575</v>
+      </c>
+      <c r="S22">
+        <v>0.001289639487199491</v>
+      </c>
+      <c r="T22">
+        <v>0.001289639487199491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>44.62094166666666</v>
+      </c>
+      <c r="H23">
+        <v>133.862825</v>
+      </c>
+      <c r="I23">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="J23">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.23744</v>
+      </c>
+      <c r="O23">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="P23">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="Q23">
+        <v>48.15254046311111</v>
+      </c>
+      <c r="R23">
+        <v>433.372864168</v>
+      </c>
+      <c r="S23">
+        <v>0.005271423039551635</v>
+      </c>
+      <c r="T23">
+        <v>0.005271423039551635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>44.62094166666666</v>
+      </c>
+      <c r="H24">
+        <v>133.862825</v>
+      </c>
+      <c r="I24">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="J24">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P24">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q24">
+        <v>0.1348147384222222</v>
+      </c>
+      <c r="R24">
+        <v>1.2133326458</v>
+      </c>
+      <c r="S24">
+        <v>1.475862979097559E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.475862979097559E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>42.33003733333333</v>
-      </c>
-      <c r="H19">
-        <v>126.990112</v>
-      </c>
-      <c r="I19">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="J19">
-        <v>0.05231411232645103</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.844986</v>
-      </c>
-      <c r="N19">
-        <v>26.534958</v>
-      </c>
-      <c r="O19">
-        <v>0.8904062077467443</v>
-      </c>
-      <c r="P19">
-        <v>0.8904062077467442</v>
-      </c>
-      <c r="Q19">
-        <v>374.4085875928106</v>
-      </c>
-      <c r="R19">
-        <v>3369.677288335296</v>
-      </c>
-      <c r="S19">
-        <v>0.04658081036823247</v>
-      </c>
-      <c r="T19">
-        <v>0.04658081036823247</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>44.62094166666666</v>
+      </c>
+      <c r="H25">
+        <v>133.862825</v>
+      </c>
+      <c r="I25">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="J25">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.782978</v>
+      </c>
+      <c r="N25">
+        <v>17.348934</v>
+      </c>
+      <c r="O25">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P25">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q25">
+        <v>258.0419239976166</v>
+      </c>
+      <c r="R25">
+        <v>2322.37731597855</v>
+      </c>
+      <c r="S25">
+        <v>0.02824873060172874</v>
+      </c>
+      <c r="T25">
+        <v>0.02824873060172874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>44.62094166666666</v>
+      </c>
+      <c r="H26">
+        <v>133.862825</v>
+      </c>
+      <c r="I26">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="J26">
+        <v>0.03483889192294087</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P26">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q26">
+        <v>0.1309922110861111</v>
+      </c>
+      <c r="R26">
+        <v>1.178929899775</v>
+      </c>
+      <c r="S26">
+        <v>1.43401646700267E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.43401646700267E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>234.229538</v>
+      </c>
+      <c r="H27">
+        <v>702.6886139999999</v>
+      </c>
+      <c r="I27">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="J27">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.2640103333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.792031</v>
+      </c>
+      <c r="O27">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="P27">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="Q27">
+        <v>61.83901840389266</v>
+      </c>
+      <c r="R27">
+        <v>556.551165635034</v>
+      </c>
+      <c r="S27">
+        <v>0.006769728517382487</v>
+      </c>
+      <c r="T27">
+        <v>0.006769728517382487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>234.229538</v>
+      </c>
+      <c r="H28">
+        <v>702.6886139999999</v>
+      </c>
+      <c r="I28">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="J28">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N28">
+        <v>3.23744</v>
+      </c>
+      <c r="O28">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="P28">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="Q28">
+        <v>252.7680251675733</v>
+      </c>
+      <c r="R28">
+        <v>2274.91222650816</v>
+      </c>
+      <c r="S28">
+        <v>0.0276713788870824</v>
+      </c>
+      <c r="T28">
+        <v>0.0276713788870824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>234.229538</v>
+      </c>
+      <c r="H29">
+        <v>702.6886139999999</v>
+      </c>
+      <c r="I29">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="J29">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P29">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q29">
+        <v>0.7076855108106664</v>
+      </c>
+      <c r="R29">
+        <v>6.369169597295999</v>
+      </c>
+      <c r="S29">
+        <v>7.747274952818116E-05</v>
+      </c>
+      <c r="T29">
+        <v>7.747274952818116E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>234.229538</v>
+      </c>
+      <c r="H30">
+        <v>702.6886139999999</v>
+      </c>
+      <c r="I30">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="J30">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.782978</v>
+      </c>
+      <c r="N30">
+        <v>17.348934</v>
+      </c>
+      <c r="O30">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P30">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q30">
+        <v>1354.544265204164</v>
+      </c>
+      <c r="R30">
+        <v>12190.89838683747</v>
+      </c>
+      <c r="S30">
+        <v>0.1482865863154177</v>
+      </c>
+      <c r="T30">
+        <v>0.1482865863154177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>234.229538</v>
+      </c>
+      <c r="H31">
+        <v>702.6886139999999</v>
+      </c>
+      <c r="I31">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="J31">
+        <v>0.1828804425622059</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P31">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q31">
+        <v>0.6876198470553332</v>
+      </c>
+      <c r="R31">
+        <v>6.188578623498</v>
+      </c>
+      <c r="S31">
+        <v>7.527609279508954E-05</v>
+      </c>
+      <c r="T31">
+        <v>7.527609279508954E-05</v>
       </c>
     </row>
   </sheetData>
